--- a/files/quizQuestionsTemplate.xlsx
+++ b/files/quizQuestionsTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB499DC-7D57-124D-99ED-49C3C7D8BB7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C831833-0BDA-AA4B-9D98-D10EC0316BCE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -546,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2E4081-C911-144B-A61F-388ADCFFCA50}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
